--- a/10_Management/bk/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
+++ b/10_Management/bk/Exam_PMP_TangToc_07032019 - TrungLV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47A9C7-52E4-423C-A954-194BAE5DF438}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EF837-71D6-4004-A3CD-D416183B0D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" firstSheet="2" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="604">
   <si>
     <t>No</t>
   </si>
@@ -2023,9 +2023,6 @@
   </si>
   <si>
     <t>Nên follow theo contract change control system</t>
-  </si>
-  <si>
-    <t>Note: hiểu về change control system gồm có: scope, schedule, cost, quality, risk, procurement, resource, và nó không include limitation on the scope of change</t>
   </si>
 </sst>
 </file>
@@ -2711,17 +2708,14 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2739,6 +2733,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3539,15 +3536,15 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="116" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="88">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C13" s="88" t="str">
         <f>IF(WEEKDAY(B13,1)=1,"Monday","Thứ "&amp;WEEKDAY(B13,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D13" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3585,11 +3582,11 @@
         <v>397</v>
       </c>
       <c r="B14" s="90">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C14" s="90" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D14" s="91">
         <v>4.1666666666666664E-2</v>
@@ -3624,12 +3621,12 @@
       <c r="A15" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="109">
-        <v>43473</v>
-      </c>
-      <c r="C15" s="109" t="str">
+      <c r="B15" s="106">
+        <v>43472</v>
+      </c>
+      <c r="C15" s="106" t="str">
         <f t="shared" si="1"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D15" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3664,8 +3661,8 @@
       <c r="A16" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3701,8 +3698,8 @@
       <c r="A17" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3737,11 +3734,11 @@
         <v>398</v>
       </c>
       <c r="B18" s="74">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C18" s="74" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D18" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3777,11 +3774,11 @@
         <v>399</v>
       </c>
       <c r="B19" s="74">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C19" s="74" t="str">
         <f t="shared" si="2"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D19" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3816,13 +3813,13 @@
       <c r="A20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="109">
+      <c r="B20" s="106">
         <f>B19+1</f>
-        <v>43474</v>
-      </c>
-      <c r="C20" s="109" t="str">
+        <v>43473</v>
+      </c>
+      <c r="C20" s="106" t="str">
         <f t="shared" si="2"/>
-        <v>Thứ 4</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D20" s="75">
         <v>4.1666666666666664E-2</v>
@@ -3855,8 +3852,8 @@
       <c r="A21" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3888,8 +3885,8 @@
       <c r="A22" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3925,11 +3922,11 @@
       </c>
       <c r="B23" s="99">
         <f>B20 + 1</f>
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="C23" s="99" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D23" s="100">
         <v>4.1666666666666664E-2</v>
@@ -3965,11 +3962,11 @@
       </c>
       <c r="B24" s="95">
         <f>B20 + 1</f>
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="C24" s="95" t="str">
         <f t="shared" si="3"/>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D24" s="75">
         <v>4.1666666666666664E-2</v>
@@ -4005,13 +4002,13 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="106">
         <f>B24+1</f>
-        <v>43476</v>
-      </c>
-      <c r="C25" s="109" t="str">
+        <v>43475</v>
+      </c>
+      <c r="C25" s="106" t="str">
         <f t="shared" si="3"/>
-        <v>Thứ 6</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D25" s="75">
         <v>4.1666666666666664E-2</v>
@@ -4049,8 +4046,8 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4085,8 +4082,8 @@
       <c r="A27" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4122,11 +4119,11 @@
       </c>
       <c r="B28" s="68">
         <f>B25 + 1</f>
-        <v>43477</v>
+        <v>43476</v>
       </c>
       <c r="C28" s="68" t="str">
         <f t="shared" ref="C28:C32" si="4">IF(WEEKDAY(B28,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B28,1))</f>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D28" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4161,11 +4158,11 @@
       </c>
       <c r="B29" s="68">
         <f>B25 + 1</f>
-        <v>43477</v>
+        <v>43476</v>
       </c>
       <c r="C29" s="68" t="str">
         <f>IF(WEEKDAY(B29,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B29,1))</f>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D29" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4200,11 +4197,11 @@
       </c>
       <c r="B30" s="99">
         <f>B28 + 1</f>
-        <v>43478</v>
+        <v>43477</v>
       </c>
       <c r="C30" s="99" t="str">
         <f t="shared" ref="C30" si="5">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D30" s="100">
         <v>4.1666666666666664E-2</v>
@@ -4239,11 +4236,11 @@
       </c>
       <c r="B31" s="99">
         <f>B29 + 1</f>
-        <v>43478</v>
+        <v>43477</v>
       </c>
       <c r="C31" s="99" t="str">
         <f>IF(WEEKDAY(B31,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B31,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D31" s="100">
         <v>4.1666666666666664E-2</v>
@@ -4276,13 +4273,13 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="107">
+      <c r="B32" s="108">
         <f>B31+1</f>
-        <v>43479</v>
-      </c>
-      <c r="C32" s="107" t="str">
+        <v>43478</v>
+      </c>
+      <c r="C32" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 2</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D32" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4315,8 +4312,8 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4348,8 +4345,8 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4385,11 +4382,11 @@
       </c>
       <c r="B35" s="68">
         <f>B31+ 2</f>
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="C35" s="68" t="str">
         <f t="shared" ref="C35:C37" si="6">IF(WEEKDAY(B35,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B35,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D35" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4424,11 +4421,11 @@
       </c>
       <c r="B36" s="70">
         <f>B31+ 2</f>
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="C36" s="68" t="str">
         <f t="shared" si="6"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D36" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4461,13 +4458,13 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="107">
+      <c r="B37" s="108">
         <f>B36+1</f>
-        <v>43481</v>
-      </c>
-      <c r="C37" s="107" t="str">
+        <v>43480</v>
+      </c>
+      <c r="C37" s="108" t="str">
         <f t="shared" si="6"/>
-        <v>Thứ 4</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D37" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4502,8 +4499,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4531,8 +4528,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4562,11 +4559,11 @@
       </c>
       <c r="B40" s="68">
         <f>B36 + 2</f>
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="C40" s="68" t="str">
         <f t="shared" ref="C40:C42" si="7">IF(WEEKDAY(B40,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B40,1))</f>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D40" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4597,11 +4594,11 @@
       </c>
       <c r="B41" s="68">
         <f>B36 + 2</f>
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="C41" s="68" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D41" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4630,13 +4627,13 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="107">
+      <c r="B42" s="108">
         <f>B36+3</f>
-        <v>43483</v>
-      </c>
-      <c r="C42" s="107" t="str">
+        <v>43482</v>
+      </c>
+      <c r="C42" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 6</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D42" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4665,8 +4662,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4694,8 +4691,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4727,11 +4724,11 @@
       </c>
       <c r="B45" s="68">
         <f>B42 + 1</f>
-        <v>43484</v>
+        <v>43483</v>
       </c>
       <c r="C45" s="68" t="str">
         <f t="shared" ref="C45:C66" si="8">IF(WEEKDAY(B45,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B45,1))</f>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D45" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4764,11 +4761,11 @@
       </c>
       <c r="B46" s="70">
         <f>B42 + 1</f>
-        <v>43484</v>
+        <v>43483</v>
       </c>
       <c r="C46" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D46" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4801,11 +4798,11 @@
       </c>
       <c r="B47" s="70">
         <f>B46 + 1</f>
-        <v>43485</v>
+        <v>43484</v>
       </c>
       <c r="C47" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D47" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4838,11 +4835,11 @@
       </c>
       <c r="B48" s="70">
         <f>B46 + 1</f>
-        <v>43485</v>
+        <v>43484</v>
       </c>
       <c r="C48" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D48" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4875,11 +4872,11 @@
       </c>
       <c r="B49" s="70">
         <f>B46 +2</f>
-        <v>43486</v>
+        <v>43485</v>
       </c>
       <c r="C49" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D49" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4912,11 +4909,11 @@
       </c>
       <c r="B50" s="90">
         <f>B46 +2</f>
-        <v>43486</v>
+        <v>43485</v>
       </c>
       <c r="C50" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D50" s="91">
         <v>4.1666666666666664E-2</v>
@@ -4951,11 +4948,11 @@
       </c>
       <c r="B51" s="70">
         <f>B47 + 2</f>
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="C51" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D51" s="69">
         <v>4.1666666666666664E-2</v>
@@ -4988,11 +4985,11 @@
       </c>
       <c r="B52" s="70">
         <f>B47 + 2</f>
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="C52" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D52" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5025,11 +5022,11 @@
       </c>
       <c r="B53" s="70">
         <f t="shared" ref="B53:B61" si="9">B49 + 2</f>
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="C53" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D53" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5062,11 +5059,11 @@
       </c>
       <c r="B54" s="70">
         <f t="shared" si="9"/>
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="C54" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D54" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5099,11 +5096,11 @@
       </c>
       <c r="B55" s="70">
         <f t="shared" si="9"/>
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="C55" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D55" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5136,11 +5133,11 @@
       </c>
       <c r="B56" s="70">
         <f t="shared" si="9"/>
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="C56" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D56" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5173,11 +5170,11 @@
       </c>
       <c r="B57" s="70">
         <f t="shared" si="9"/>
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="C57" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D57" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5210,11 +5207,11 @@
       </c>
       <c r="B58" s="70">
         <f t="shared" si="9"/>
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="C58" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D58" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5247,11 +5244,11 @@
       </c>
       <c r="B59" s="70">
         <f t="shared" si="9"/>
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="C59" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D59" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5284,11 +5281,11 @@
       </c>
       <c r="B60" s="70">
         <f t="shared" si="9"/>
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="C60" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 7</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D60" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5321,11 +5318,11 @@
       </c>
       <c r="B61" s="70">
         <f t="shared" si="9"/>
-        <v>43492</v>
+        <v>43491</v>
       </c>
       <c r="C61" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D61" s="69">
         <v>4.1666666666666664E-2</v>
@@ -5358,11 +5355,11 @@
       </c>
       <c r="B62" s="70">
         <f>B58 + 3</f>
-        <v>43493</v>
+        <v>43492</v>
       </c>
       <c r="C62" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D62" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5395,11 +5392,11 @@
       </c>
       <c r="B63" s="70">
         <f>B59 +3</f>
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="C63" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D63" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5432,11 +5429,11 @@
       </c>
       <c r="B64" s="70">
         <f>B60 + 4</f>
-        <v>43495</v>
+        <v>43494</v>
       </c>
       <c r="C64" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 4</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D64" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5469,11 +5466,11 @@
       </c>
       <c r="B65" s="70">
         <f>B61 + 4</f>
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="C65" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 5</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D65" s="69">
         <v>8.3333333333333329E-2</v>
@@ -5506,11 +5503,11 @@
       </c>
       <c r="B66" s="70">
         <f>B62 + 4</f>
-        <v>43497</v>
+        <v>43496</v>
       </c>
       <c r="C66" s="70" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 6</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D66" s="69">
         <v>8.3333333333333329E-2</v>
@@ -32750,18 +32747,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -38700,152 +38697,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -38876,225 +38873,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="113"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -39102,12 +39105,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39126,120 +39123,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -39271,120 +39268,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -39416,135 +39413,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -42220,7 +42217,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42477,18 +42474,14 @@
       <c r="E17" s="15"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" ht="60">
+    <row r="18" spans="1:6">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
-        <v>604</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6">
